--- a/jklabour/excel/data.xlsx
+++ b/jklabour/excel/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="21">
   <si>
     <t>94116459</t>
   </si>
